--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/2_CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/2_CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\YASIEL\Casos de Pruebas\Edu\Pititos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Documentacion\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7605" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Control del Documento</t>
-  </si>
-  <si>
-    <t>Título: Criterios para definir proveedores válidos de requisitos</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>El sistema debe mostrar una lista de las etiquetas extraidas del archivo HTML ingresado.</t>
+  </si>
+  <si>
+    <t>Título: Diseño de caso de prueba para el requerimiento AUDATA_REQ_HTML_Leer_Etiquetas</t>
   </si>
 </sst>
 </file>
@@ -827,73 +827,106 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,39 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,13 +1477,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1491,11 +1491,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1503,11 +1503,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1515,11 +1515,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1528,7 +1528,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1537,11 +1537,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1563,25 +1563,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1603,85 +1603,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="34" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="B25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="B28" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1721,12 +1721,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1735,11 +1735,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1749,11 +1749,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1775,11 +1775,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1805,23 +1805,23 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
@@ -1829,28 +1829,28 @@
         <v>1</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="E39" s="15">
         <v>43557</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1863,13 +1863,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
@@ -1883,11 +1881,13 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
@@ -1934,10 +1934,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1992,11 +1992,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2046,20 +2046,20 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>50</v>
+      <c r="E10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16"/>
@@ -2070,11 +2070,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
       <c r="I11" s="2"/>
@@ -2084,11 +2084,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="18"/>
       <c r="H12" s="16"/>
       <c r="I12" s="2"/>
@@ -2099,11 +2099,11 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16"/>
       <c r="I13" s="2"/>
@@ -2114,20 +2114,20 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>51</v>
+      <c r="C14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="16"/>
@@ -2139,11 +2139,11 @@
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="2"/>
@@ -2153,20 +2153,20 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="67" t="s">
+      <c r="B16" s="57" t="s">
         <v>51</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>50</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="16"/>
@@ -2177,11 +2177,11 @@
     </row>
     <row r="17" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="68"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="2"/>
@@ -2585,6 +2585,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="B16:B17"/>
@@ -2594,14 +2602,6 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2632,12 +2632,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2662,16 +2662,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/2_CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/2_CP_AUDATA_REQ_HTML_LEER_ETIQUETAS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Creacion del documento</t>
   </si>
   <si>
     <t>Clasificación: Uso interno de la Universidad La Salle</t>
@@ -827,12 +824,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -845,41 +878,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -890,15 +908,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -922,18 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,13 +1474,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1491,11 +1488,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1503,11 +1500,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1515,11 +1512,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1537,11 +1534,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1563,25 +1560,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="B21" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1603,85 +1600,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="41" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1721,12 +1718,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1735,11 +1732,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1749,11 +1746,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1775,11 +1772,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1813,39 +1810,37 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39" t="s">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="14">
         <v>1</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="E39" s="15">
         <v>43557</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -1863,11 +1858,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
@@ -1881,13 +1878,11 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1934,10 +1929,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1992,11 +1987,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2046,20 +2041,20 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>49</v>
+      <c r="E10" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16"/>
@@ -2070,11 +2065,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
       <c r="I11" s="2"/>
@@ -2084,11 +2079,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="18"/>
       <c r="H12" s="16"/>
       <c r="I12" s="2"/>
@@ -2099,11 +2094,11 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16"/>
       <c r="I13" s="2"/>
@@ -2114,20 +2109,20 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="66" t="s">
+      <c r="B14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>50</v>
+      <c r="C14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="16"/>
@@ -2139,11 +2134,11 @@
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="2"/>
@@ -2153,20 +2148,20 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>50</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>49</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="16"/>
@@ -2177,11 +2172,11 @@
     </row>
     <row r="17" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="2"/>
@@ -2585,14 +2580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="B16:B17"/>
@@ -2602,6 +2589,14 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2632,12 +2627,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2662,16 +2657,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
